--- a/db/fabrique.xlsx
+++ b/db/fabrique.xlsx
@@ -351,20 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,36 +374,27 @@
       <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="C2" s="1">
-        <v>730</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1065</v>
+        <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="C3" s="1">
-        <v>870</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1275</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
